--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.024809748065</v>
+        <v>17.642385</v>
       </c>
       <c r="H2">
-        <v>10.024809748065</v>
+        <v>52.927155</v>
       </c>
       <c r="I2">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J2">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>101.826259398135</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N2">
-        <v>101.826259398135</v>
+        <v>0.168572</v>
       </c>
       <c r="O2">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P2">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q2">
-        <v>1020.788877823419</v>
+        <v>0.9913373747400001</v>
       </c>
       <c r="R2">
-        <v>1020.788877823419</v>
+        <v>8.922036372659999</v>
       </c>
       <c r="S2">
-        <v>0.007074541682471431</v>
+        <v>5.78165432004709E-06</v>
       </c>
       <c r="T2">
-        <v>0.007074541682471431</v>
+        <v>5.781654320047091E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.024809748065</v>
+        <v>17.642385</v>
       </c>
       <c r="H3">
-        <v>10.024809748065</v>
+        <v>52.927155</v>
       </c>
       <c r="I3">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J3">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>98.5479426357753</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="N3">
-        <v>98.5479426357753</v>
+        <v>419.396924</v>
       </c>
       <c r="O3">
-        <v>0.2567120455412919</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="P3">
-        <v>0.2567120455412919</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="Q3">
-        <v>987.9243759868706</v>
+        <v>2466.38733367458</v>
       </c>
       <c r="R3">
-        <v>987.9243759868706</v>
+        <v>22197.48600307122</v>
       </c>
       <c r="S3">
-        <v>0.006846775399778312</v>
+        <v>0.01438440569880562</v>
       </c>
       <c r="T3">
-        <v>0.006846775399778312</v>
+        <v>0.01438440569880562</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.024809748065</v>
+        <v>17.642385</v>
       </c>
       <c r="H4">
-        <v>10.024809748065</v>
+        <v>52.927155</v>
       </c>
       <c r="I4">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J4">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>183.51095001644</v>
+        <v>99.694255</v>
       </c>
       <c r="N4">
-        <v>183.51095001644</v>
+        <v>299.082765</v>
       </c>
       <c r="O4">
-        <v>0.4780360715602013</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="P4">
-        <v>0.4780360715602013</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="Q4">
-        <v>1839.662360601477</v>
+        <v>1758.844428998175</v>
       </c>
       <c r="R4">
-        <v>1839.662360601477</v>
+        <v>15829.59986098358</v>
       </c>
       <c r="S4">
-        <v>0.01274971576835724</v>
+        <v>0.01025789075477469</v>
       </c>
       <c r="T4">
-        <v>0.01274971576835724</v>
+        <v>0.01025789075477469</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.7272453100143</v>
+        <v>17.642385</v>
       </c>
       <c r="H5">
-        <v>18.7272453100143</v>
+        <v>52.927155</v>
       </c>
       <c r="I5">
-        <v>0.04982388568133937</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J5">
-        <v>0.04982388568133937</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>101.826259398135</v>
+        <v>188.11053</v>
       </c>
       <c r="N5">
-        <v>101.826259398135</v>
+        <v>564.33159</v>
       </c>
       <c r="O5">
-        <v>0.2652518828985068</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="P5">
-        <v>0.2652518828985068</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="Q5">
-        <v>1906.925338750023</v>
+        <v>3318.71839281405</v>
       </c>
       <c r="R5">
-        <v>1906.925338750023</v>
+        <v>29868.46553532645</v>
       </c>
       <c r="S5">
-        <v>0.01321587949029522</v>
+        <v>0.0193553506825721</v>
       </c>
       <c r="T5">
-        <v>0.01321587949029522</v>
+        <v>0.0193553506825721</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.7272453100143</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H6">
-        <v>18.7272453100143</v>
+        <v>56.364044</v>
       </c>
       <c r="I6">
-        <v>0.04982388568133937</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J6">
-        <v>0.04982388568133937</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>98.5479426357753</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N6">
-        <v>98.5479426357753</v>
+        <v>0.168572</v>
       </c>
       <c r="O6">
-        <v>0.2567120455412919</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P6">
-        <v>0.2567120455412919</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q6">
-        <v>1845.531496537381</v>
+        <v>1.055711069463111</v>
       </c>
       <c r="R6">
-        <v>1845.531496537381</v>
+        <v>9.501399625168</v>
       </c>
       <c r="S6">
-        <v>0.01279039161007211</v>
+        <v>6.157093055312047E-06</v>
       </c>
       <c r="T6">
-        <v>0.01279039161007211</v>
+        <v>6.157093055312048E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.7272453100143</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H7">
-        <v>18.7272453100143</v>
+        <v>56.364044</v>
       </c>
       <c r="I7">
-        <v>0.04982388568133937</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J7">
-        <v>0.04982388568133937</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>183.51095001644</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="N7">
-        <v>183.51095001644</v>
+        <v>419.396924</v>
       </c>
       <c r="O7">
-        <v>0.4780360715602013</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="P7">
-        <v>0.4780360715602013</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="Q7">
-        <v>3436.654578031645</v>
+        <v>2626.545186422295</v>
       </c>
       <c r="R7">
-        <v>3436.654578031645</v>
+        <v>23638.90667780065</v>
       </c>
       <c r="S7">
-        <v>0.02381761458097203</v>
+        <v>0.01531847452827062</v>
       </c>
       <c r="T7">
-        <v>0.02381761458097203</v>
+        <v>0.01531847452827062</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.0714852946813</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H8">
-        <v>40.0714852946813</v>
+        <v>56.364044</v>
       </c>
       <c r="I8">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J8">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.826259398135</v>
+        <v>99.694255</v>
       </c>
       <c r="N8">
-        <v>101.826259398135</v>
+        <v>299.082765</v>
       </c>
       <c r="O8">
-        <v>0.2652518828985068</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="P8">
-        <v>0.2652518828985068</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="Q8">
-        <v>4080.32945608477</v>
+        <v>1873.057125122406</v>
       </c>
       <c r="R8">
-        <v>4080.32945608477</v>
+        <v>16857.51412610166</v>
       </c>
       <c r="S8">
-        <v>0.02827858085291673</v>
+        <v>0.01092399933171004</v>
       </c>
       <c r="T8">
-        <v>0.02827858085291673</v>
+        <v>0.01092399933171004</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.0714852946813</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H9">
-        <v>40.0714852946813</v>
+        <v>56.364044</v>
       </c>
       <c r="I9">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J9">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>98.5479426357753</v>
+        <v>188.11053</v>
       </c>
       <c r="N9">
-        <v>98.5479426357753</v>
+        <v>564.33159</v>
       </c>
       <c r="O9">
-        <v>0.2567120455412919</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="P9">
-        <v>0.2567120455412919</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="Q9">
-        <v>3948.962434150566</v>
+        <v>3534.22339659444</v>
       </c>
       <c r="R9">
-        <v>3948.962434150566</v>
+        <v>31808.01056934996</v>
       </c>
       <c r="S9">
-        <v>0.02736814629336579</v>
+        <v>0.02061221385332206</v>
       </c>
       <c r="T9">
-        <v>0.02736814629336579</v>
+        <v>0.02061221385332206</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.0714852946813</v>
+        <v>44.82177033333333</v>
       </c>
       <c r="H10">
-        <v>40.0714852946813</v>
+        <v>134.465311</v>
       </c>
       <c r="I10">
-        <v>0.1066102926166106</v>
+        <v>0.1117939314398673</v>
       </c>
       <c r="J10">
-        <v>0.1066102926166106</v>
+        <v>0.1117939314398674</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>183.51095001644</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N10">
-        <v>183.51095001644</v>
+        <v>0.168572</v>
       </c>
       <c r="O10">
-        <v>0.4780360715602013</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P10">
-        <v>0.4780360715602013</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q10">
-        <v>7353.556334996772</v>
+        <v>2.518565156210222</v>
       </c>
       <c r="R10">
-        <v>7353.556334996772</v>
+        <v>22.667086405892</v>
       </c>
       <c r="S10">
-        <v>0.05096356547032805</v>
+        <v>1.46887159576143E-05</v>
       </c>
       <c r="T10">
-        <v>0.05096356547032805</v>
+        <v>1.46887159576143E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>51.2023791341376</v>
+        <v>44.82177033333333</v>
       </c>
       <c r="H11">
-        <v>51.2023791341376</v>
+        <v>134.465311</v>
       </c>
       <c r="I11">
-        <v>0.136224065117985</v>
+        <v>0.1117939314398673</v>
       </c>
       <c r="J11">
-        <v>0.136224065117985</v>
+        <v>0.1117939314398674</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>101.826259398135</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="N11">
-        <v>101.826259398135</v>
+        <v>419.396924</v>
       </c>
       <c r="O11">
-        <v>0.2652518828985068</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="P11">
-        <v>0.2652518828985068</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="Q11">
-        <v>5213.74673951435</v>
+        <v>6266.037535344816</v>
       </c>
       <c r="R11">
-        <v>5213.74673951435</v>
+        <v>56394.33781810335</v>
       </c>
       <c r="S11">
-        <v>0.03613368976863433</v>
+        <v>0.03654463546812727</v>
       </c>
       <c r="T11">
-        <v>0.03613368976863433</v>
+        <v>0.03654463546812728</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>51.2023791341376</v>
+        <v>44.82177033333333</v>
       </c>
       <c r="H12">
-        <v>51.2023791341376</v>
+        <v>134.465311</v>
       </c>
       <c r="I12">
-        <v>0.136224065117985</v>
+        <v>0.1117939314398673</v>
       </c>
       <c r="J12">
-        <v>0.136224065117985</v>
+        <v>0.1117939314398674</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>98.5479426357753</v>
+        <v>99.694255</v>
       </c>
       <c r="N12">
-        <v>98.5479426357753</v>
+        <v>299.082765</v>
       </c>
       <c r="O12">
-        <v>0.2567120455412919</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="P12">
-        <v>0.2567120455412919</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="Q12">
-        <v>5045.889121726211</v>
+        <v>4468.473001162767</v>
       </c>
       <c r="R12">
-        <v>5045.889121726211</v>
+        <v>40216.25701046491</v>
       </c>
       <c r="S12">
-        <v>0.03497035840838809</v>
+        <v>0.0260609222344334</v>
       </c>
       <c r="T12">
-        <v>0.03497035840838809</v>
+        <v>0.02606092223443341</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>51.2023791341376</v>
+        <v>44.82177033333333</v>
       </c>
       <c r="H13">
-        <v>51.2023791341376</v>
+        <v>134.465311</v>
       </c>
       <c r="I13">
-        <v>0.136224065117985</v>
+        <v>0.1117939314398673</v>
       </c>
       <c r="J13">
-        <v>0.136224065117985</v>
+        <v>0.1117939314398674</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>183.51095001644</v>
+        <v>188.11053</v>
       </c>
       <c r="N13">
-        <v>183.51095001644</v>
+        <v>564.33159</v>
       </c>
       <c r="O13">
-        <v>0.4780360715602013</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="P13">
-        <v>0.4780360715602013</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="Q13">
-        <v>9396.197238007537</v>
+        <v>8431.446972941609</v>
       </c>
       <c r="R13">
-        <v>9396.197238007537</v>
+        <v>75883.02275647449</v>
       </c>
       <c r="S13">
-        <v>0.06512001694096262</v>
+        <v>0.04917368502134904</v>
       </c>
       <c r="T13">
-        <v>0.06512001694096262</v>
+        <v>0.04917368502134904</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>254.357849436458</v>
+        <v>51.213492</v>
       </c>
       <c r="H14">
-        <v>254.357849436458</v>
+        <v>153.640476</v>
       </c>
       <c r="I14">
-        <v>0.6767197312087613</v>
+        <v>0.1277360883085496</v>
       </c>
       <c r="J14">
-        <v>0.6767197312087613</v>
+        <v>0.1277360883085496</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>101.826259398135</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N14">
-        <v>101.826259398135</v>
+        <v>0.168572</v>
       </c>
       <c r="O14">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P14">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q14">
-        <v>25900.30835666854</v>
+        <v>2.877720257808</v>
       </c>
       <c r="R14">
-        <v>25900.30835666854</v>
+        <v>25.899482320272</v>
       </c>
       <c r="S14">
-        <v>0.1795011828976953</v>
+        <v>1.678337182112833E-05</v>
       </c>
       <c r="T14">
-        <v>0.1795011828976953</v>
+        <v>1.678337182112833E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>254.357849436458</v>
+        <v>51.213492</v>
       </c>
       <c r="H15">
-        <v>254.357849436458</v>
+        <v>153.640476</v>
       </c>
       <c r="I15">
-        <v>0.6767197312087613</v>
+        <v>0.1277360883085496</v>
       </c>
       <c r="J15">
-        <v>0.6767197312087613</v>
+        <v>0.1277360883085496</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>98.5479426357753</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="N15">
-        <v>98.5479426357753</v>
+        <v>419.396924</v>
       </c>
       <c r="O15">
-        <v>0.2567120455412919</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="P15">
-        <v>0.2567120455412919</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="Q15">
-        <v>25066.44275522323</v>
+        <v>7159.593670699535</v>
       </c>
       <c r="R15">
-        <v>25066.44275522323</v>
+        <v>64436.34303629582</v>
       </c>
       <c r="S15">
-        <v>0.1737221064567543</v>
+        <v>0.04175601236343817</v>
       </c>
       <c r="T15">
-        <v>0.1737221064567543</v>
+        <v>0.04175601236343817</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>254.357849436458</v>
+        <v>51.213492</v>
       </c>
       <c r="H16">
-        <v>254.357849436458</v>
+        <v>153.640476</v>
       </c>
       <c r="I16">
-        <v>0.6767197312087613</v>
+        <v>0.1277360883085496</v>
       </c>
       <c r="J16">
-        <v>0.6767197312087613</v>
+        <v>0.1277360883085496</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>183.51095001644</v>
+        <v>99.694255</v>
       </c>
       <c r="N16">
-        <v>183.51095001644</v>
+        <v>299.082765</v>
       </c>
       <c r="O16">
-        <v>0.4780360715602013</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="P16">
-        <v>0.4780360715602013</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="Q16">
-        <v>46677.45059422302</v>
+        <v>5105.690930888461</v>
       </c>
       <c r="R16">
-        <v>46677.45059422302</v>
+        <v>45951.21837799614</v>
       </c>
       <c r="S16">
-        <v>0.3234964418543116</v>
+        <v>0.02977728952783467</v>
       </c>
       <c r="T16">
-        <v>0.3234964418543116</v>
+        <v>0.02977728952783468</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.48505491324496</v>
+        <v>51.213492</v>
       </c>
       <c r="H17">
-        <v>1.48505491324496</v>
+        <v>153.640476</v>
       </c>
       <c r="I17">
-        <v>0.003950992524696721</v>
+        <v>0.1277360883085496</v>
       </c>
       <c r="J17">
-        <v>0.003950992524696721</v>
+        <v>0.1277360883085496</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>101.826259398135</v>
+        <v>188.11053</v>
       </c>
       <c r="N17">
-        <v>101.826259398135</v>
+        <v>564.33159</v>
       </c>
       <c r="O17">
-        <v>0.2652518828985068</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="P17">
-        <v>0.2652518828985068</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="Q17">
-        <v>151.2175868165561</v>
+        <v>9633.79712327076</v>
       </c>
       <c r="R17">
-        <v>151.2175868165561</v>
+        <v>86704.17410943685</v>
       </c>
       <c r="S17">
-        <v>0.00104800820649373</v>
+        <v>0.05618600304545563</v>
       </c>
       <c r="T17">
-        <v>0.00104800820649373</v>
+        <v>0.05618600304545564</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.48505491324496</v>
+        <v>266.7063343333334</v>
       </c>
       <c r="H18">
-        <v>1.48505491324496</v>
+        <v>800.119003</v>
       </c>
       <c r="I18">
-        <v>0.003950992524696721</v>
+        <v>0.6652157965493198</v>
       </c>
       <c r="J18">
-        <v>0.003950992524696721</v>
+        <v>0.6652157965493199</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>98.5479426357753</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N18">
-        <v>98.5479426357753</v>
+        <v>0.168572</v>
       </c>
       <c r="O18">
-        <v>0.2567120455412919</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P18">
-        <v>0.2567120455412919</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q18">
-        <v>146.3491064014406</v>
+        <v>14.98640673041289</v>
       </c>
       <c r="R18">
-        <v>146.3491064014406</v>
+        <v>134.877660573716</v>
       </c>
       <c r="S18">
-        <v>0.001014267372933249</v>
+        <v>8.740336581943089E-05</v>
       </c>
       <c r="T18">
-        <v>0.001014267372933249</v>
+        <v>8.74033658194309E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>266.7063343333334</v>
+      </c>
+      <c r="H19">
+        <v>800.119003</v>
+      </c>
+      <c r="I19">
+        <v>0.6652157965493198</v>
+      </c>
+      <c r="J19">
+        <v>0.6652157965493199</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>139.7989746666667</v>
+      </c>
+      <c r="N19">
+        <v>419.396924</v>
+      </c>
+      <c r="O19">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="P19">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="Q19">
+        <v>37285.2720769052</v>
+      </c>
+      <c r="R19">
+        <v>335567.4486921467</v>
+      </c>
+      <c r="S19">
+        <v>0.2174542793104196</v>
+      </c>
+      <c r="T19">
+        <v>0.2174542793104196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>266.7063343333334</v>
+      </c>
+      <c r="H20">
+        <v>800.119003</v>
+      </c>
+      <c r="I20">
+        <v>0.6652157965493198</v>
+      </c>
+      <c r="J20">
+        <v>0.6652157965493199</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>99.694255</v>
+      </c>
+      <c r="N20">
+        <v>299.082765</v>
+      </c>
+      <c r="O20">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="P20">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="Q20">
+        <v>26589.08930514259</v>
+      </c>
+      <c r="R20">
+        <v>239301.8037462833</v>
+      </c>
+      <c r="S20">
+        <v>0.1550722558881777</v>
+      </c>
+      <c r="T20">
+        <v>0.1550722558881777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>266.7063343333334</v>
+      </c>
+      <c r="H21">
+        <v>800.119003</v>
+      </c>
+      <c r="I21">
+        <v>0.6652157965493198</v>
+      </c>
+      <c r="J21">
+        <v>0.6652157965493199</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>188.11053</v>
+      </c>
+      <c r="N21">
+        <v>564.33159</v>
+      </c>
+      <c r="O21">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="P21">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="Q21">
+        <v>50170.26990580054</v>
+      </c>
+      <c r="R21">
+        <v>451532.4291522048</v>
+      </c>
+      <c r="S21">
+        <v>0.2926018579849032</v>
+      </c>
+      <c r="T21">
+        <v>0.2926018579849032</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H22">
+        <v>5.280167</v>
+      </c>
+      <c r="I22">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J22">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.05619066666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.168572</v>
+      </c>
+      <c r="O22">
+        <v>0.0001313909956330249</v>
+      </c>
+      <c r="P22">
+        <v>0.0001313909956330249</v>
+      </c>
+      <c r="Q22">
+        <v>0.09889870128044444</v>
+      </c>
+      <c r="R22">
+        <v>0.8900883115239999</v>
+      </c>
+      <c r="S22">
+        <v>5.767946594922791E-07</v>
+      </c>
+      <c r="T22">
+        <v>5.767946594922793E-07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H23">
+        <v>5.280167</v>
+      </c>
+      <c r="I23">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J23">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>139.7989746666667</v>
+      </c>
+      <c r="N23">
+        <v>419.396924</v>
+      </c>
+      <c r="O23">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="P23">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="Q23">
+        <v>246.0539775562564</v>
+      </c>
+      <c r="R23">
+        <v>2214.485798006308</v>
+      </c>
+      <c r="S23">
+        <v>0.001435030170910289</v>
+      </c>
+      <c r="T23">
+        <v>0.001435030170910289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H24">
+        <v>5.280167</v>
+      </c>
+      <c r="I24">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J24">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>99.694255</v>
+      </c>
+      <c r="N24">
+        <v>299.082765</v>
+      </c>
+      <c r="O24">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="P24">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="Q24">
+        <v>175.4674384468616</v>
+      </c>
+      <c r="R24">
+        <v>1579.206946021755</v>
+      </c>
+      <c r="S24">
+        <v>0.00102335703199929</v>
+      </c>
+      <c r="T24">
+        <v>0.00102335703199929</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.48505491324496</v>
-      </c>
-      <c r="H19">
-        <v>1.48505491324496</v>
-      </c>
-      <c r="I19">
-        <v>0.003950992524696721</v>
-      </c>
-      <c r="J19">
-        <v>0.003950992524696721</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>183.51095001644</v>
-      </c>
-      <c r="N19">
-        <v>183.51095001644</v>
-      </c>
-      <c r="O19">
-        <v>0.4780360715602013</v>
-      </c>
-      <c r="P19">
-        <v>0.4780360715602013</v>
-      </c>
-      <c r="Q19">
-        <v>272.5238379561645</v>
-      </c>
-      <c r="R19">
-        <v>272.5238379561645</v>
-      </c>
-      <c r="S19">
-        <v>0.001888716945269742</v>
-      </c>
-      <c r="T19">
-        <v>0.001888716945269742</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H25">
+        <v>5.280167</v>
+      </c>
+      <c r="I25">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J25">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>188.11053</v>
+      </c>
+      <c r="N25">
+        <v>564.33159</v>
+      </c>
+      <c r="O25">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="P25">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="Q25">
+        <v>331.08500428617</v>
+      </c>
+      <c r="R25">
+        <v>2979.76503857553</v>
+      </c>
+      <c r="S25">
+        <v>0.001930946107863622</v>
+      </c>
+      <c r="T25">
+        <v>0.001930946107863623</v>
       </c>
     </row>
   </sheetData>
